--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ050Log.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ050Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC38F7C5-0276-476B-9E9E-6E82D9E3CFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8055D2D-8A04-45BC-A07C-39130F26270F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增;C:異動;D:刪除</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>TranKey</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -249,11 +245,6 @@
   <si>
     <t>債務人繳款資料檔案</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y:債務全數清償;
-N:債務尚未全數清償;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>截至目前累計應還款金額</t>
@@ -317,6 +308,17 @@
   <si>
     <t>ukeyEq</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:債務全數清償
+N:債務尚未全數清償</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -907,10 +909,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -935,10 +937,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1017,10 +1019,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>18</v>
@@ -1036,10 +1038,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>18</v>
@@ -1050,12 +1052,12 @@
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>3</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>17</v>
@@ -1068,7 +1070,7 @@
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1076,13 +1078,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="15">
         <v>9</v>
@@ -1095,13 +1097,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="15">
         <v>9</v>
@@ -1114,13 +1116,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="15">
         <v>9</v>
@@ -1133,10 +1135,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>18</v>
@@ -1146,7 +1148,7 @@
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="14" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1154,13 +1156,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="E16" s="15">
         <v>8</v>
@@ -1173,20 +1175,20 @@
         <v>15</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="15">
         <v>6</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1194,13 +1196,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="E18" s="15">
         <v>8</v>
@@ -1213,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="D19" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="15">
         <v>6</v>
@@ -1238,7 +1240,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="15">
         <v>8</v>
@@ -1251,13 +1253,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="D21" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="15">
         <v>6</v>
@@ -1742,24 +1744,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
